--- a/Mifos Automation Excels/Loan Product/3184-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%INT-Regular-UPFRONT-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/3184-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%INT-Regular-UPFRONT-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>productname</t>
   </si>
@@ -221,9 +221,6 @@
     <t>feesreceivable</t>
   </si>
   <si>
-    <t>OveerdueFees-%Interest</t>
-  </si>
-  <si>
     <t>addoverduecharges</t>
   </si>
   <si>
@@ -234,6 +231,12 @@
   </si>
   <si>
     <t>Penalties, Fees, Interest, Principal order</t>
+  </si>
+  <si>
+    <t>overduecharges</t>
+  </si>
+  <si>
+    <t>OverdueFees-%Interest</t>
   </si>
 </sst>
 </file>
@@ -638,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -655,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -783,7 +786,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -892,121 +895,129 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>37</v>
+      <c r="A34" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1035,7 +1046,7 @@
         <v>56</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/3184-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%INT-Regular-UPFRONT-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/3184-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%INT-Regular-UPFRONT-Loanproduct.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Loan Product\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>productname</t>
   </si>
@@ -201,9 +206,6 @@
   </si>
   <si>
     <t>Fees Receivable</t>
-  </si>
-  <si>
-    <t>accrualperiodic</t>
   </si>
   <si>
     <t>interestreceivable</t>
@@ -242,7 +244,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmmm\-yyyy"/>
   </numFmts>
@@ -350,6 +352,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -397,7 +402,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,9 +435,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,6 +487,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -641,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -658,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -786,7 +825,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -895,129 +934,121 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>17</v>
+      <c r="A34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1046,7 +1077,7 @@
         <v>56</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
